--- a/testCases/ResultsExcelSheet.xlsx
+++ b/testCases/ResultsExcelSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antho\OneDrive\Desktop\SCHOOL\Repo's\SeniorResearch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antho\OneDrive\Desktop\SCHOOL\Repo's\SeniorResearch\testCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2DBB39-2EF4-4AB6-B1EB-EDFBC01B8FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE6B1DB-26B7-4E0F-A10C-DFF25809DAE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31860" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{855EEB34-EAE5-48CD-8C8D-9845C6B441A0}"/>
+    <workbookView xWindow="2400" yWindow="2805" windowWidth="21600" windowHeight="11295" xr2:uid="{855EEB34-EAE5-48CD-8C8D-9845C6B441A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,12 +59,6 @@
     <t>Attempt 3</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>✔️</t>
-  </si>
-  <si>
     <t>Case 2</t>
   </si>
   <si>
@@ -75,13 +69,19 @@
   </si>
   <si>
     <t>Case 5</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,12 +99,6 @@
     </font>
     <font>
       <sz val="15"/>
-      <color rgb="FF212529"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF212529"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -130,16 +124,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,7 +467,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D6A7BC6-E720-43E6-9291-DB280D459D81}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:P6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -492,16 +485,16 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
+      <c r="N2" t="s">
         <v>10</v>
-      </c>
-      <c r="K2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -557,49 +550,49 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="2"/>
     </row>
@@ -607,50 +600,50 @@
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>8</v>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Q5" s="2"/>
     </row>
@@ -658,50 +651,50 @@
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="Q6" s="2"/>
     </row>

--- a/testCases/ResultsExcelSheet.xlsx
+++ b/testCases/ResultsExcelSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antho\OneDrive\Desktop\SCHOOL\Repo's\SeniorResearch\testCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE6B1DB-26B7-4E0F-A10C-DFF25809DAE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537E6476-5963-47B5-BFB4-EDE99716B8B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="2805" windowWidth="21600" windowHeight="11295" xr2:uid="{855EEB34-EAE5-48CD-8C8D-9845C6B441A0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{855EEB34-EAE5-48CD-8C8D-9845C6B441A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -465,16 +465,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D6A7BC6-E720-43E6-9291-DB280D459D81}">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:P6"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="6" width="10.5703125" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" customWidth="1"/>
+    <col min="22" max="22" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
@@ -698,6 +700,10 @@
       </c>
       <c r="Q6" s="2"/>
     </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
